--- a/Other/CPU MicroCode Signals.xlsx
+++ b/Other/CPU MicroCode Signals.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/MAX7000CPU-GEN2/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libraries\Documents\MAX7000CPU-GEN2\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74227755-A047-1D4A-A37D-9CAA72786EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1269EB-88D4-476F-B52D-B734E7DA67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="98">
   <si>
     <t>Command Name</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>SSKH</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -721,37 +724,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA06146-33F3-F747-834E-F5D5B9EC84C7}">
   <dimension ref="A1:AD265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P232" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AC265" sqref="AC265"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" customWidth="1"/>
-    <col min="14" max="16" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" customWidth="1"/>
-    <col min="20" max="20" width="15.83203125" customWidth="1"/>
-    <col min="21" max="21" width="16.83203125" customWidth="1"/>
-    <col min="22" max="22" width="17.1640625" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="14" max="16" width="19.375" customWidth="1"/>
+    <col min="17" max="17" width="22.375" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="16.125" customWidth="1"/>
+    <col min="20" max="20" width="15.875" customWidth="1"/>
+    <col min="21" max="21" width="16.875" customWidth="1"/>
+    <col min="22" max="22" width="17.125" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="16.125" customWidth="1"/>
+    <col min="25" max="25" width="15.625" customWidth="1"/>
+    <col min="26" max="26" width="14.375" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
     <col min="28" max="28" width="15.5" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="29" max="29" width="20.375" customWidth="1"/>
     <col min="30" max="30" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -843,7 +846,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -935,7 +938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -967,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1027,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>A3</f>
         <v>NOP</v>
@@ -1061,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:B8" si="0">A4</f>
         <v>NOP</v>
@@ -1155,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>NOP</v>
@@ -1249,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>NOP</v>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>NOP</v>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1681,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>A11</f>
         <v>AIN</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1775,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ref="A13:B16" si="1">A12</f>
         <v>AIN</v>
@@ -1809,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>AIN</v>
@@ -1903,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>AIN</v>
@@ -1997,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2057,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>AIN</v>
@@ -2091,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2151,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2335,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>A19</f>
         <v>BIN</v>
@@ -2369,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ref="A21:B24" si="2">A20</f>
         <v>BIN</v>
@@ -2463,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2523,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>BIN</v>
@@ -2557,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2617,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>BIN</v>
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2711,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>BIN</v>
@@ -2745,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2989,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>A27</f>
         <v>JMP</v>
@@ -3023,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3083,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ref="A29:A32" si="3">A28</f>
         <v>JMP</v>
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -3177,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="3"/>
         <v>JMP</v>
@@ -3211,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3271,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="3"/>
         <v>JMP</v>
@@ -3305,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3365,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="3"/>
         <v>JMP</v>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3459,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>A35</f>
         <v>JPE</v>
@@ -3677,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3737,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ref="A37:A40" si="5">A36</f>
         <v>JPE</v>
@@ -3771,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -3831,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>JPE</v>
@@ -3865,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3925,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>JPE</v>
@@ -3959,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4019,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>JPE</v>
@@ -4053,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4113,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4297,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>A43</f>
         <v>JPE</v>
@@ -4331,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4391,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" ref="A45:A48" si="7">A44</f>
         <v>JPE</v>
@@ -4425,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -4485,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="7"/>
         <v>JPE</v>
@@ -4519,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4579,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="7"/>
         <v>JPE</v>
@@ -4613,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4673,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="7"/>
         <v>JPE</v>
@@ -4707,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4767,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -4891,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4951,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>A51</f>
         <v>JPC</v>
@@ -4985,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5045,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" ref="A53:A56" si="9">A52</f>
         <v>JPC</v>
@@ -5079,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -5139,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="9"/>
         <v>JPC</v>
@@ -5173,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5233,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="9"/>
         <v>JPC</v>
@@ -5267,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5327,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="9"/>
         <v>JPC</v>
@@ -5361,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5421,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5605,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>A59</f>
         <v>JPC</v>
@@ -5639,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5699,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" ref="A61:A64" si="11">A60</f>
         <v>JPC</v>
@@ -5733,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -5793,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="11"/>
         <v>JPC</v>
@@ -5827,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5887,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="11"/>
         <v>JPC</v>
@@ -5921,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5981,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="11"/>
         <v>JPC</v>
@@ -6015,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -6075,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6259,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>A67</f>
         <v>DSP</v>
@@ -6293,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6353,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A72" si="13">A68</f>
         <v>DSP</v>
@@ -6387,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -6447,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="13"/>
         <v>DSP</v>
@@ -6481,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6541,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="13"/>
         <v>DSP</v>
@@ -6575,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6635,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="13"/>
         <v>DSP</v>
@@ -6669,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6729,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6913,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>A75</f>
         <v>JBI</v>
@@ -6947,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7007,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" ref="A77:A80" si="15">A76</f>
         <v>JBI</v>
@@ -7041,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -7101,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="15"/>
         <v>JBI</v>
@@ -7135,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -7195,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="15"/>
         <v>JBI</v>
@@ -7229,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -7289,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="15"/>
         <v>JBI</v>
@@ -7323,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -7383,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7567,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>A83</f>
         <v>JBIH</v>
@@ -7601,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -7661,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" ref="A85:A88" si="17">A84</f>
         <v>JBIH</v>
@@ -7695,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -7755,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="17"/>
         <v>JBIH</v>
@@ -7789,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7849,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="17"/>
         <v>JBIH</v>
@@ -7883,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -7943,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="17"/>
         <v>JBIH</v>
@@ -7977,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -8037,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -8045,7 +8048,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -8229,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>A92</f>
         <v>FLF</v>
@@ -8263,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -8323,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" ref="A94:A97" si="19">A93</f>
         <v>FLF</v>
@@ -8357,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -8417,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="19"/>
         <v>FLF</v>
@@ -8451,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -8511,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="19"/>
         <v>FLF</v>
@@ -8545,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -8605,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="19"/>
         <v>FLF</v>
@@ -8639,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -8699,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -8883,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>A100</f>
         <v>FLT</v>
@@ -8917,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -8977,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" ref="A102:A105" si="21">A101</f>
         <v>FLT</v>
@@ -9011,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -9071,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="21"/>
         <v>FLT</v>
@@ -9105,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -9165,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="21"/>
         <v>FLT</v>
@@ -9199,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -9259,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="21"/>
         <v>FLT</v>
@@ -9293,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -9353,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -9445,7 +9448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -9537,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>A108</f>
         <v>SUM</v>
@@ -9571,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -9631,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" ref="A110:A113" si="23">A109</f>
         <v>SUM</v>
@@ -9665,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -9725,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="23"/>
         <v>SUM</v>
@@ -9759,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -9819,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="23"/>
         <v>SUM</v>
@@ -9853,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -9913,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="23"/>
         <v>SUM</v>
@@ -9947,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -10007,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -10191,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>A116</f>
         <v>SUB</v>
@@ -10225,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -10285,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" ref="A118:A121" si="25">A117</f>
         <v>SUB</v>
@@ -10319,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -10379,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="25"/>
         <v>SUB</v>
@@ -10413,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -10473,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="25"/>
         <v>SUB</v>
@@ -10507,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -10567,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="25"/>
         <v>SUB</v>
@@ -10601,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -10661,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -10845,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>A124</f>
         <v>AOT</v>
@@ -10879,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -10939,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" ref="A126:A129" si="27">A125</f>
         <v>AOT</v>
@@ -10973,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -11033,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="27"/>
         <v>AOT</v>
@@ -11067,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -11127,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="27"/>
         <v>AOT</v>
@@ -11161,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -11221,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="27"/>
         <v>AOT</v>
@@ -11255,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -11315,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -11499,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>A132</f>
         <v>BOT</v>
@@ -11533,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -11593,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" ref="A134:A137" si="29">A133</f>
         <v>BOT</v>
@@ -11627,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -11687,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="29"/>
         <v>BOT</v>
@@ -11721,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -11781,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="29"/>
         <v>BOT</v>
@@ -11815,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -11875,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="29"/>
         <v>BOT</v>
@@ -11909,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -11969,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -12093,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -12153,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>A140</f>
         <v>AMM</v>
@@ -12187,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -12247,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" ref="A142:A145" si="31">A141</f>
         <v>AMM</v>
@@ -12281,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -12341,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="31"/>
         <v>AMM</v>
@@ -12375,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143">
         <v>0</v>
@@ -12435,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="31"/>
         <v>AMM</v>
@@ -12469,7 +12472,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -12529,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="31"/>
         <v>AMM</v>
@@ -12563,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -12623,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -12715,7 +12718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>48</v>
       </c>
@@ -12747,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -12807,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>A148</f>
         <v>NTA</v>
@@ -12841,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149">
         <v>0</v>
@@ -12901,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" ref="A150:A153" si="33">A149</f>
         <v>NTA</v>
@@ -12935,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -12995,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="33"/>
         <v>NTA</v>
@@ -13029,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151">
         <v>0</v>
@@ -13089,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="33"/>
         <v>NTA</v>
@@ -13123,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152">
         <v>0</v>
@@ -13183,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="33"/>
         <v>NTA</v>
@@ -13217,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <v>0</v>
@@ -13277,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -13369,7 +13372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -13401,7 +13404,7 @@
         <v>1</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156">
         <v>0</v>
@@ -13461,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>A156</f>
         <v>NTB</v>
@@ -13495,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -13555,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" ref="A158:A161" si="35">A157</f>
         <v>NTB</v>
@@ -13589,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158">
         <v>1</v>
@@ -13649,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="35"/>
         <v>NTB</v>
@@ -13683,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159">
         <v>0</v>
@@ -13743,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="35"/>
         <v>NTB</v>
@@ -13777,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160">
         <v>0</v>
@@ -13837,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="35"/>
         <v>NTB</v>
@@ -13871,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161">
         <v>0</v>
@@ -13931,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -14023,7 +14026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>50</v>
       </c>
@@ -14055,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164">
         <v>0</v>
@@ -14115,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f>A164</f>
         <v>XOR</v>
@@ -14149,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165">
         <v>0</v>
@@ -14209,7 +14212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" ref="A166:A169" si="37">A165</f>
         <v>XOR</v>
@@ -14243,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166">
         <v>1</v>
@@ -14303,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="37"/>
         <v>XOR</v>
@@ -14337,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -14397,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="37"/>
         <v>XOR</v>
@@ -14431,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168">
         <v>0</v>
@@ -14491,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="37"/>
         <v>XOR</v>
@@ -14525,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>0</v>
@@ -14585,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -14677,7 +14680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -14709,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172">
         <v>0</v>
@@ -14769,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f>A172</f>
         <v>AND</v>
@@ -14803,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173">
         <v>0</v>
@@ -14863,7 +14866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" ref="A174:A177" si="39">A173</f>
         <v>AND</v>
@@ -14897,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174">
         <v>1</v>
@@ -14957,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="39"/>
         <v>AND</v>
@@ -14991,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175">
         <v>0</v>
@@ -15051,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="39"/>
         <v>AND</v>
@@ -15085,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -15145,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="39"/>
         <v>AND</v>
@@ -15179,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>0</v>
@@ -15239,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -15331,7 +15334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -15363,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180">
         <v>0</v>
@@ -15423,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>A180</f>
         <v>ORR</v>
@@ -15457,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181">
         <v>0</v>
@@ -15517,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" ref="A182:A185" si="41">A181</f>
         <v>ORR</v>
@@ -15551,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <v>1</v>
@@ -15611,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="41"/>
         <v>ORR</v>
@@ -15645,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -15705,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="41"/>
         <v>ORR</v>
@@ -15739,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184">
         <v>0</v>
@@ -15799,7 +15802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="41"/>
         <v>ORR</v>
@@ -15833,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -15893,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -15985,7 +15988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>53</v>
       </c>
@@ -16017,7 +16020,7 @@
         <v>1</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
         <v>0</v>
@@ -16077,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f>A188</f>
         <v>LSH</v>
@@ -16111,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -16171,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" ref="A190:A193" si="43">A189</f>
         <v>LSH</v>
@@ -16205,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190">
         <v>1</v>
@@ -16265,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="43"/>
         <v>LSH</v>
@@ -16299,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -16359,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="43"/>
         <v>LSH</v>
@@ -16393,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192">
         <v>0</v>
@@ -16453,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="43"/>
         <v>LSH</v>
@@ -16487,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
         <v>0</v>
@@ -16547,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -16639,7 +16642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -16671,7 +16674,7 @@
         <v>1</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196">
         <v>0</v>
@@ -16731,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f>A196</f>
         <v>MEO</v>
@@ -16765,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -16825,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" ref="A198:A201" si="45">A197</f>
         <v>MEO</v>
@@ -16859,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198">
         <v>1</v>
@@ -16919,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="45"/>
         <v>MEO</v>
@@ -16953,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -17013,7 +17016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="45"/>
         <v>MEO</v>
@@ -17047,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200">
         <v>0</v>
@@ -17107,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="45"/>
         <v>MEO</v>
@@ -17141,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -17201,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -17293,7 +17296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>57</v>
       </c>
@@ -17325,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -17385,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f>A204</f>
         <v>MEN</v>
@@ -17419,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -17479,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" ref="A206:A209" si="47">A205</f>
         <v>MEN</v>
@@ -17513,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206">
         <v>1</v>
@@ -17573,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="47"/>
         <v>MEN</v>
@@ -17607,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -17667,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="47"/>
         <v>MEN</v>
@@ -17701,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208">
         <v>0</v>
@@ -17761,7 +17764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="47"/>
         <v>MEN</v>
@@ -17795,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="K209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209">
         <v>0</v>
@@ -17855,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -17947,7 +17950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -17979,7 +17982,7 @@
         <v>1</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212">
         <v>0</v>
@@ -18039,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f>A212</f>
         <v>SMA</v>
@@ -18073,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="K213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L213">
         <v>0</v>
@@ -18133,7 +18136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" ref="A214:A217" si="49">A213</f>
         <v>SMA</v>
@@ -18167,7 +18170,7 @@
         <v>0</v>
       </c>
       <c r="K214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L214">
         <v>1</v>
@@ -18227,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="49"/>
         <v>SMA</v>
@@ -18261,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -18321,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="49"/>
         <v>SMA</v>
@@ -18355,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -18415,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="49"/>
         <v>SMA</v>
@@ -18449,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -18509,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -18601,7 +18604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>59</v>
       </c>
@@ -18633,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="K220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -18693,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f>A220</f>
         <v>SMAH</v>
@@ -18727,7 +18730,7 @@
         <v>0</v>
       </c>
       <c r="K221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -18787,7 +18790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" ref="A222:A225" si="51">A221</f>
         <v>SMAH</v>
@@ -18821,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="K222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L222">
         <v>1</v>
@@ -18881,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="51"/>
         <v>SMAH</v>
@@ -18915,7 +18918,7 @@
         <v>0</v>
       </c>
       <c r="K223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -18975,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="51"/>
         <v>SMAH</v>
@@ -19009,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="K224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -19069,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="51"/>
         <v>SMAH</v>
@@ -19103,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="K225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -19163,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -19255,7 +19258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>60</v>
       </c>
@@ -19287,7 +19290,7 @@
         <v>1</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L228">
         <v>0</v>
@@ -19347,7 +19350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f>A228</f>
         <v>STK</v>
@@ -19381,7 +19384,7 @@
         <v>0</v>
       </c>
       <c r="K229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -19441,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" ref="A230:A233" si="53">A229</f>
         <v>STK</v>
@@ -19475,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="K230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <v>1</v>
@@ -19535,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="53"/>
         <v>STK</v>
@@ -19569,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -19629,7 +19632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="53"/>
         <v>STK</v>
@@ -19663,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="K232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L232">
         <v>0</v>
@@ -19723,7 +19726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="53"/>
         <v>STK</v>
@@ -19757,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="K233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -19817,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -19909,7 +19912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>62</v>
       </c>
@@ -19941,7 +19944,7 @@
         <v>1</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -20001,7 +20004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f>A236</f>
         <v>USK</v>
@@ -20035,7 +20038,7 @@
         <v>0</v>
       </c>
       <c r="K237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -20095,7 +20098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" ref="A238:A241" si="55">A237</f>
         <v>USK</v>
@@ -20129,7 +20132,7 @@
         <v>0</v>
       </c>
       <c r="K238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L238">
         <v>1</v>
@@ -20189,7 +20192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="55"/>
         <v>USK</v>
@@ -20223,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -20283,7 +20286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="55"/>
         <v>USK</v>
@@ -20317,7 +20320,7 @@
         <v>0</v>
       </c>
       <c r="K240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240">
         <v>0</v>
@@ -20377,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="55"/>
         <v>USK</v>
@@ -20411,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="K241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -20471,7 +20474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -20563,7 +20566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>63</v>
       </c>
@@ -20595,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="K244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L244">
         <v>0</v>
@@ -20655,7 +20658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f>A244</f>
         <v>STC</v>
@@ -20689,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="K245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -20749,7 +20752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" ref="A246:A249" si="57">A245</f>
         <v>STC</v>
@@ -20783,7 +20786,7 @@
         <v>0</v>
       </c>
       <c r="K246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L246">
         <v>1</v>
@@ -20843,7 +20846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="57"/>
         <v>STC</v>
@@ -20877,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="K247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -20937,7 +20940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="57"/>
         <v>STC</v>
@@ -20971,7 +20974,7 @@
         <v>0</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -21031,7 +21034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="57"/>
         <v>STC</v>
@@ -21065,7 +21068,7 @@
         <v>0</v>
       </c>
       <c r="K249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -21125,7 +21128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -21217,12 +21220,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>95</v>
       </c>
       <c r="B252" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -21249,7 +21252,7 @@
         <v>1</v>
       </c>
       <c r="K252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L252">
         <v>0</v>
@@ -21309,14 +21312,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f>A252</f>
         <v>SSK</v>
       </c>
       <c r="B253" t="str">
         <f>B252</f>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -21343,7 +21346,7 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -21403,14 +21406,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" ref="A254:A257" si="59">A253</f>
         <v>SSK</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" ref="B254:B257" si="60">B253</f>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -21437,7 +21440,7 @@
         <v>0</v>
       </c>
       <c r="K254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L254">
         <v>1</v>
@@ -21497,14 +21500,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="59"/>
         <v>SSK</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="60"/>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C255">
         <v>3</v>
@@ -21531,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="K255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -21591,14 +21594,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="59"/>
         <v>SSK</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="60"/>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -21625,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256">
         <v>0</v>
@@ -21685,14 +21688,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="59"/>
         <v>SSK</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="60"/>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C257">
         <v>5</v>
@@ -21719,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="K257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -21779,17 +21782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A258" t="str">
-        <f>A257</f>
-        <v>SSK</v>
-      </c>
-      <c r="B258" t="str">
-        <f>B257</f>
-        <v>0XXXXXXX</v>
-      </c>
-    </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -21881,12 +21874,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>96</v>
       </c>
       <c r="B260" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -21913,7 +21906,7 @@
         <v>1</v>
       </c>
       <c r="K260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -21973,14 +21966,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f>A260</f>
         <v>SSKH</v>
       </c>
       <c r="B261" t="str">
         <f>B260</f>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -22007,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="K261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -22067,14 +22060,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" ref="A262:A265" si="61">A261</f>
         <v>SSKH</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" ref="B262:B265" si="62">B261</f>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C262">
         <v>2</v>
@@ -22101,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="K262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L262">
         <v>1</v>
@@ -22161,14 +22154,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="61"/>
         <v>SSKH</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="62"/>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -22195,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="K263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L263">
         <v>0</v>
@@ -22255,14 +22248,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="61"/>
         <v>SSKH</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="62"/>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C264">
         <v>4</v>
@@ -22289,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="K264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L264">
         <v>0</v>
@@ -22349,14 +22342,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="61"/>
         <v>SSKH</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="62"/>
-        <v>0XXXXXXX</v>
+        <v>U</v>
       </c>
       <c r="C265">
         <v>5</v>
@@ -22383,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="K265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L265">
         <v>0</v>
@@ -22444,7 +22437,337 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:F24 I2:AC24 G2:H2 AD2:AD8">
+  <conditionalFormatting sqref="D2:F24 G2:H2 AD2:AD8 I2:AC24">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:H10">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:F32 I25:AC32">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:F40 I34:AC40">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:F48 I42:AC48">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:F56 I50:AC56">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:H50">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:F64 I58:AC64">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:H58">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H64">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:F72 I65:AC72">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:H66">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:H72">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:F80 I74:AC80">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74:H74">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74:H80">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:F88 I82:AC88">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82:H82">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82:H88">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:F97 I91:AC97">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:H91">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:H97">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:F105 I99:AC105">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99:H99">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99:H105">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:F113 I107:AC113">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:H107">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:H113">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115:F121 I115:AC121">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115:H115">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -22454,7 +22777,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H10">
+  <conditionalFormatting sqref="G115:H121">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130:F130 I130:AC130">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -22464,17 +22797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F32 I25:AC32">
+  <conditionalFormatting sqref="G130:H130">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -22484,7 +22807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
+  <conditionalFormatting sqref="D123:F129 I123:AC129">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -22494,7 +22817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:F40 I34:AC40">
+  <conditionalFormatting sqref="G123:H123">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -22504,7 +22827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
+  <conditionalFormatting sqref="G123:H129">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -22514,7 +22837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:F48 I42:AC48">
+  <conditionalFormatting sqref="D131:F137 I131:AC137">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -22524,7 +22847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
+  <conditionalFormatting sqref="G131:H131">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -22534,7 +22857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:F56 I50:AC56">
+  <conditionalFormatting sqref="G131:H137">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -22544,7 +22867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:H50">
+  <conditionalFormatting sqref="D139:F145 I139:AC145">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -22554,7 +22877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:F64 I58:AC64">
+  <conditionalFormatting sqref="G139:H139">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -22564,7 +22887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58:H58">
+  <conditionalFormatting sqref="G139:H145">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -22574,7 +22897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H64">
+  <conditionalFormatting sqref="D147:F153 I147:AC153">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -22584,7 +22907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:F72 I65:AC72">
+  <conditionalFormatting sqref="G147:H147">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -22594,7 +22917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:H66">
+  <conditionalFormatting sqref="G147:H153">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -22604,7 +22927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:H72">
+  <conditionalFormatting sqref="D155:F161 I155:AC161">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -22614,7 +22937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:F80 I74:AC80">
+  <conditionalFormatting sqref="G155:H155">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -22624,7 +22947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H74">
+  <conditionalFormatting sqref="G155:H161">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -22634,7 +22957,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H80">
+  <conditionalFormatting sqref="D163:F169 I163:AC169">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -22644,7 +22967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:F88 I82:AC88">
+  <conditionalFormatting sqref="G163:H163">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -22654,7 +22977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H82">
+  <conditionalFormatting sqref="G163:H169">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -22664,7 +22987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H88">
+  <conditionalFormatting sqref="D171:F177 I171:AC177">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -22674,7 +22997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91:F97 I91:AC97">
+  <conditionalFormatting sqref="G171:H171">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -22684,7 +23007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:H91">
+  <conditionalFormatting sqref="G171:H177">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -22694,7 +23017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:H97">
+  <conditionalFormatting sqref="D179:F185 I179:AC185">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -22704,7 +23027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D99:F105 I99:AC105">
+  <conditionalFormatting sqref="G179:H179">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -22714,7 +23037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:H99">
+  <conditionalFormatting sqref="G179:H185">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -22724,37 +23047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:H105">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:F113 I107:AC113">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:H107">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:H113">
+  <conditionalFormatting sqref="D187:F193 I187:AC193">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -22764,7 +23057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115:F121 I115:AC121">
+  <conditionalFormatting sqref="G187:H187">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -22774,7 +23067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H115">
+  <conditionalFormatting sqref="G187:H193">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -22784,7 +23077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H121">
+  <conditionalFormatting sqref="D195:F201 I195:AC201">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -22794,7 +23087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D130:F130 I130:AC130">
+  <conditionalFormatting sqref="G195:H195">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -22804,8 +23097,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G130:H130">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="G195:H201">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22814,27 +23107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123:F129 I123:AC129">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123:H123">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123:H129">
+  <conditionalFormatting sqref="D203:F209 I203:AC209">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -22844,7 +23117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131:F137 I131:AC137">
+  <conditionalFormatting sqref="G203:H203">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -22854,7 +23127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:H131">
+  <conditionalFormatting sqref="G203:H209">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -22864,7 +23137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:H137">
+  <conditionalFormatting sqref="D211:F217 I211:AC217">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -22874,7 +23147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139:F145 I139:AC145">
+  <conditionalFormatting sqref="G211:H211">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -22884,7 +23157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G139:H139">
+  <conditionalFormatting sqref="G211:H217">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -22894,7 +23167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G139:H145">
+  <conditionalFormatting sqref="D219:F225 I219:AC225">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -22904,7 +23177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147:F153 I147:AC153">
+  <conditionalFormatting sqref="G219:H219">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -22914,7 +23187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G147:H147">
+  <conditionalFormatting sqref="G219:H225">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -22924,7 +23197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G147:H153">
+  <conditionalFormatting sqref="D227:F233 I227:AC233">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -22934,7 +23207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155:F161 I155:AC161">
+  <conditionalFormatting sqref="G227:H227">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -22944,7 +23217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G155:H155">
+  <conditionalFormatting sqref="G227:H233">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -22954,7 +23227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G155:H161">
+  <conditionalFormatting sqref="AD10:AD16">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -22964,7 +23237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D163:F169 I163:AC169">
+  <conditionalFormatting sqref="AD18:AD24">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -22974,7 +23247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G163:H163">
+  <conditionalFormatting sqref="AD26:AD32">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -22984,7 +23257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G163:H169">
+  <conditionalFormatting sqref="AD34:AD40">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -22994,7 +23267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D171:F177 I171:AC177">
+  <conditionalFormatting sqref="AD42:AD48">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -23004,7 +23277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171:H171">
+  <conditionalFormatting sqref="AD50:AD56">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -23014,7 +23287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171:H177">
+  <conditionalFormatting sqref="AD58:AD64">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -23024,7 +23297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D179:F185 I179:AC185">
+  <conditionalFormatting sqref="AD66:AD72">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -23034,7 +23307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H179">
+  <conditionalFormatting sqref="AD74:AD80">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -23044,7 +23317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H185">
+  <conditionalFormatting sqref="AD82:AD88">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -23054,7 +23327,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D187:F193 I187:AC193">
+  <conditionalFormatting sqref="AD91:AD97">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD99:AD105">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD107:AD113">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD115:AD121">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -23064,7 +23367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:H187">
+  <conditionalFormatting sqref="AD123:AD129">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -23074,7 +23377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:H193">
+  <conditionalFormatting sqref="AD131:AD137">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -23084,97 +23387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D195:F201 I195:AC201">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195:H195">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195:H201">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D203:F209 I203:AC209">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G203:H203">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G203:H209">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D211:F217 I211:AC217">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G211:H211">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G211:H217">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D219:F225 I219:AC225">
+  <conditionalFormatting sqref="J2:AD233">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -23184,7 +23397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G219:H219">
+  <conditionalFormatting sqref="D235:F241 I235:AC235 I236:J241 L236:AC241">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -23194,7 +23407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G219:H225">
+  <conditionalFormatting sqref="G235:H235">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -23204,7 +23417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D227:F233 I227:AC233">
+  <conditionalFormatting sqref="G235:H241">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -23214,7 +23427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G227:H227">
+  <conditionalFormatting sqref="J235:AD235 J236:J241 L236:AD241">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -23224,7 +23437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G227:H233">
+  <conditionalFormatting sqref="D243:F249 I243:AC243 I244:J249 L244:AC249">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -23234,7 +23447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD10:AD16">
+  <conditionalFormatting sqref="G243:H243">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -23244,7 +23457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD18:AD24">
+  <conditionalFormatting sqref="G243:H249">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -23254,7 +23467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD26:AD32">
+  <conditionalFormatting sqref="J243:AD243 J244:J249 L244:AD249">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -23264,7 +23477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD34:AD40">
+  <conditionalFormatting sqref="D1:AD1">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -23274,7 +23487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD42:AD48">
+  <conditionalFormatting sqref="G1:H1">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -23284,7 +23497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD50:AD56">
+  <conditionalFormatting sqref="J1:AD1">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -23294,7 +23507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD58:AD64">
+  <conditionalFormatting sqref="D251:F257 I251:AC251 I252:J257 L252:AC257">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -23304,7 +23517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD66:AD72">
+  <conditionalFormatting sqref="G251:H251">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -23314,7 +23527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD74:AD80">
+  <conditionalFormatting sqref="G251:H257">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -23324,7 +23537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD82:AD88">
+  <conditionalFormatting sqref="J251:AD251 J252:J257 L252:AD257">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -23334,7 +23547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD91:AD97">
+  <conditionalFormatting sqref="D259:F265 I259:AC259 I260:J265 L260:AC265">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -23344,7 +23557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD99:AD105">
+  <conditionalFormatting sqref="G259:H259">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -23354,7 +23567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD107:AD113">
+  <conditionalFormatting sqref="G259:H265">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -23364,7 +23577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD115:AD121">
+  <conditionalFormatting sqref="J259:AD259 J260:J265 L260:AD265">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -23374,7 +23587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD123:AD129">
+  <conditionalFormatting sqref="K27:K32">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -23384,7 +23597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD131:AD137">
+  <conditionalFormatting sqref="K35:K40">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -23394,7 +23607,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:AD233">
+  <conditionalFormatting sqref="K43:K48">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:K56">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:K64">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:K72">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:K80">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83:K88">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K92:K97">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K100:K105">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K108:K113">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:K121">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K124:K129">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K132:K137">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K140:K145">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -23404,7 +23737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D235:F241 I235:AC241">
+  <conditionalFormatting sqref="K148:K153">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -23414,7 +23747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G235:H235">
+  <conditionalFormatting sqref="K156:K161">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -23424,7 +23757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G235:H241">
+  <conditionalFormatting sqref="K164:K169">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -23434,7 +23767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J235:AD241">
+  <conditionalFormatting sqref="K172:K177">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -23444,7 +23777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D243:F249 I243:AC249">
+  <conditionalFormatting sqref="K180:K185">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -23454,7 +23787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G243:H243">
+  <conditionalFormatting sqref="K188:K193">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -23464,7 +23797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G243:H249">
+  <conditionalFormatting sqref="K196:K201">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -23474,7 +23807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J243:AD249">
+  <conditionalFormatting sqref="K204:K209">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -23484,7 +23817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:AD1">
+  <conditionalFormatting sqref="K212:K217">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -23494,7 +23827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1">
+  <conditionalFormatting sqref="K220:K225">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -23504,7 +23837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:AD1">
+  <conditionalFormatting sqref="K228:K233">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -23514,7 +23847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D251:F257 I251:AC257">
+  <conditionalFormatting sqref="K236:K241">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -23524,7 +23857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G251:H251">
+  <conditionalFormatting sqref="K236:K241">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -23534,7 +23867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G251:H257">
+  <conditionalFormatting sqref="K244:K249">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -23544,7 +23877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J251:AD257">
+  <conditionalFormatting sqref="K244:K249">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -23554,7 +23887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D259:F265 I259:AC265">
+  <conditionalFormatting sqref="K252:K257">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -23564,7 +23897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G259:H259">
+  <conditionalFormatting sqref="K252:K257">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -23574,7 +23907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G259:H265">
+  <conditionalFormatting sqref="K260:K265">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -23584,7 +23917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J259:AD265">
+  <conditionalFormatting sqref="K260:K265">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Other/CPU MicroCode Signals.xlsx
+++ b/Other/CPU MicroCode Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libraries\Documents\MAX7000CPU-GEN2\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1269EB-88D4-476F-B52D-B734E7DA67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB12D7-9E02-4861-AE88-E1906902D4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
   </bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA06146-33F3-F747-834E-F5D5B9EC84C7}">
   <dimension ref="A1:AD265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="T231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U231">
         <v>1</v>
@@ -20426,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="O241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P241">
         <v>0</v>

--- a/Other/CPU MicroCode Signals.xlsx
+++ b/Other/CPU MicroCode Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libraries\Documents\MAX7000CPU-GEN2\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB12D7-9E02-4861-AE88-E1906902D4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6334DA3-C38B-449F-BF1E-581B5828EBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
   </bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA06146-33F3-F747-834E-F5D5B9EC84C7}">
   <dimension ref="A1:AD265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y237" sqref="Y237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19263,7 +19263,7 @@
         <v>60</v>
       </c>
       <c r="B228">
-        <v>10100001</v>
+        <v>10110010</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -19357,7 +19357,7 @@
       </c>
       <c r="B229">
         <f>B228</f>
-        <v>10100001</v>
+        <v>10110010</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="B230">
         <f t="shared" ref="B230:B233" si="54">B229</f>
-        <v>10100001</v>
+        <v>10110010</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="54"/>
-        <v>10100001</v>
+        <v>10110010</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -19639,7 +19639,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="54"/>
-        <v>10100001</v>
+        <v>10110010</v>
       </c>
       <c r="C232">
         <v>4</v>
@@ -19733,7 +19733,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="54"/>
-        <v>10100001</v>
+        <v>10110010</v>
       </c>
       <c r="C233">
         <v>5</v>
@@ -19917,7 +19917,7 @@
         <v>62</v>
       </c>
       <c r="B236">
-        <v>10100001</v>
+        <v>10110011</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -19986,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="Y236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z236">
         <v>1</v>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="B237">
         <f>B236</f>
-        <v>10100001</v>
+        <v>10110011</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="B238">
         <f t="shared" ref="B238:B241" si="56">B237</f>
-        <v>10100001</v>
+        <v>10110011</v>
       </c>
       <c r="C238">
         <v>2</v>
@@ -20199,7 +20199,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="56"/>
-        <v>10100001</v>
+        <v>10110011</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -20268,7 +20268,7 @@
         <v>1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z239">
         <v>1</v>
@@ -20293,7 +20293,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="56"/>
-        <v>10100001</v>
+        <v>10110011</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -20387,7 +20387,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="56"/>
-        <v>10100001</v>
+        <v>10110011</v>
       </c>
       <c r="C241">
         <v>5</v>

--- a/Other/CPU MicroCode Signals.xlsx
+++ b/Other/CPU MicroCode Signals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libraries\Documents\MAX7000CPU-GEN2\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6334DA3-C38B-449F-BF1E-581B5828EBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC1243-E33D-4D74-99CA-70BA3B600E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="102">
   <si>
     <t>Command Name</t>
   </si>
@@ -329,6 +329,18 @@
   <si>
     <t>U</t>
   </si>
+  <si>
+    <t>LKB</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Column31</t>
+  </si>
+  <si>
+    <t>Key_Enable</t>
+  </si>
 </sst>
 </file>
 
@@ -343,15 +355,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -359,12 +377,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,9 +444,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB45B309-2178-7343-9D45-AAE406D4A560}" name="Table3" displayName="Table3" ref="A1:AD265" totalsRowShown="0">
-  <autoFilter ref="A1:AD265" xr:uid="{DB45B309-2178-7343-9D45-AAE406D4A560}"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB45B309-2178-7343-9D45-AAE406D4A560}" name="Table3" displayName="Table3" ref="A1:AE273" totalsRowShown="0">
+  <autoFilter ref="A1:AE273" xr:uid="{DB45B309-2178-7343-9D45-AAE406D4A560}"/>
+  <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{5280D978-F6C0-C242-A76F-DE82F90037EB}" name="Column1">
       <calculatedColumnFormula>A1</calculatedColumnFormula>
     </tableColumn>
@@ -420,6 +481,7 @@
     <tableColumn id="28" xr3:uid="{B847F2FA-AEA9-CD4E-9B2D-0734AABC0756}" name="Column28"/>
     <tableColumn id="29" xr3:uid="{2E3CAA06-19F5-9347-B70A-1C8F4D4FD8E7}" name="Column29"/>
     <tableColumn id="30" xr3:uid="{62D1B5F6-34AC-754C-8D6C-C4DB0FC619E9}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{325007F6-7085-47C1-A4F3-68AA54172EBE}" name="Column31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA06146-33F3-F747-834E-F5D5B9EC84C7}">
-  <dimension ref="A1:AD265"/>
+  <dimension ref="A1:AE273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y237" sqref="Y237"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H245" sqref="H245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,9 +814,10 @@
     <col min="28" max="28" width="15.5" customWidth="1"/>
     <col min="29" max="29" width="20.375" customWidth="1"/>
     <col min="30" max="30" width="23.5" customWidth="1"/>
+    <col min="31" max="31" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -845,8 +908,11 @@
       <c r="AD1" t="s">
         <v>94</v>
       </c>
+      <c r="AE1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -937,8 +1003,11 @@
       <c r="AD2" t="s">
         <v>61</v>
       </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1029,8 +1098,11 @@
       <c r="AD3">
         <v>0</v>
       </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>A3</f>
         <v>NOP</v>
@@ -1123,8 +1195,11 @@
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:B8" si="0">A4</f>
         <v>NOP</v>
@@ -1217,8 +1292,11 @@
       <c r="AD5">
         <v>0</v>
       </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>NOP</v>
@@ -1311,8 +1389,11 @@
       <c r="AD6">
         <v>0</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>NOP</v>
@@ -1405,8 +1486,11 @@
       <c r="AD7">
         <v>0</v>
       </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>NOP</v>
@@ -1499,8 +1583,11 @@
       <c r="AD8">
         <v>0</v>
       </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +1678,11 @@
       <c r="AD10" t="s">
         <v>61</v>
       </c>
+      <c r="AE10" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1683,8 +1773,11 @@
       <c r="AD11">
         <v>0</v>
       </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>A11</f>
         <v>AIN</v>
@@ -1777,8 +1870,11 @@
       <c r="AD12">
         <v>0</v>
       </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ref="A13:B16" si="1">A12</f>
         <v>AIN</v>
@@ -1871,8 +1967,11 @@
       <c r="AD13">
         <v>0</v>
       </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>AIN</v>
@@ -1965,8 +2064,11 @@
       <c r="AD14">
         <v>0</v>
       </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>AIN</v>
@@ -2059,8 +2161,11 @@
       <c r="AD15">
         <v>0</v>
       </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>AIN</v>
@@ -2153,8 +2258,11 @@
       <c r="AD16">
         <v>0</v>
       </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2245,8 +2353,11 @@
       <c r="AD18" t="s">
         <v>61</v>
       </c>
+      <c r="AE18" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2337,8 +2448,11 @@
       <c r="AD19">
         <v>0</v>
       </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>A19</f>
         <v>BIN</v>
@@ -2431,8 +2545,11 @@
       <c r="AD20">
         <v>0</v>
       </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ref="A21:B24" si="2">A20</f>
         <v>BIN</v>
@@ -2525,8 +2642,11 @@
       <c r="AD21">
         <v>0</v>
       </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>BIN</v>
@@ -2619,8 +2739,11 @@
       <c r="AD22">
         <v>0</v>
       </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>BIN</v>
@@ -2713,8 +2836,11 @@
       <c r="AD23">
         <v>0</v>
       </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>BIN</v>
@@ -2807,8 +2933,11 @@
       <c r="AD24">
         <v>0</v>
       </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2899,8 +3028,11 @@
       <c r="AD26" t="s">
         <v>61</v>
       </c>
+      <c r="AE26" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2991,8 +3123,11 @@
       <c r="AD27">
         <v>0</v>
       </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>A27</f>
         <v>JMP</v>
@@ -3085,8 +3220,11 @@
       <c r="AD28">
         <v>0</v>
       </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ref="A29:A32" si="3">A28</f>
         <v>JMP</v>
@@ -3179,8 +3317,11 @@
       <c r="AD29">
         <v>0</v>
       </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="3"/>
         <v>JMP</v>
@@ -3273,8 +3414,11 @@
       <c r="AD30">
         <v>0</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="3"/>
         <v>JMP</v>
@@ -3367,8 +3511,11 @@
       <c r="AD31">
         <v>0</v>
       </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="3"/>
         <v>JMP</v>
@@ -3461,8 +3608,11 @@
       <c r="AD32">
         <v>0</v>
       </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3553,8 +3703,11 @@
       <c r="AD34" t="s">
         <v>61</v>
       </c>
+      <c r="AE34" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3645,8 +3798,11 @@
       <c r="AD35">
         <v>0</v>
       </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>A35</f>
         <v>JPE</v>
@@ -3739,8 +3895,11 @@
       <c r="AD36">
         <v>0</v>
       </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ref="A37:A40" si="5">A36</f>
         <v>JPE</v>
@@ -3833,8 +3992,11 @@
       <c r="AD37">
         <v>0</v>
       </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
         <v>JPE</v>
@@ -3927,8 +4089,11 @@
       <c r="AD38">
         <v>0</v>
       </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="5"/>
         <v>JPE</v>
@@ -4021,8 +4186,11 @@
       <c r="AD39">
         <v>0</v>
       </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="5"/>
         <v>JPE</v>
@@ -4115,8 +4283,11 @@
       <c r="AD40">
         <v>0</v>
       </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4207,8 +4378,11 @@
       <c r="AD42" t="s">
         <v>61</v>
       </c>
+      <c r="AE42" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4299,8 +4473,11 @@
       <c r="AD43">
         <v>0</v>
       </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>A43</f>
         <v>JPE</v>
@@ -4393,8 +4570,11 @@
       <c r="AD44">
         <v>0</v>
       </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" ref="A45:A48" si="7">A44</f>
         <v>JPE</v>
@@ -4487,8 +4667,11 @@
       <c r="AD45">
         <v>0</v>
       </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="7"/>
         <v>JPE</v>
@@ -4581,8 +4764,11 @@
       <c r="AD46">
         <v>0</v>
       </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="7"/>
         <v>JPE</v>
@@ -4675,8 +4861,11 @@
       <c r="AD47">
         <v>0</v>
       </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="7"/>
         <v>JPE</v>
@@ -4769,8 +4958,11 @@
       <c r="AD48">
         <v>0</v>
       </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4861,8 +5053,11 @@
       <c r="AD50" t="s">
         <v>61</v>
       </c>
+      <c r="AE50" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -4953,8 +5148,11 @@
       <c r="AD51">
         <v>0</v>
       </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>A51</f>
         <v>JPC</v>
@@ -5047,8 +5245,11 @@
       <c r="AD52">
         <v>0</v>
       </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" ref="A53:A56" si="9">A52</f>
         <v>JPC</v>
@@ -5141,8 +5342,11 @@
       <c r="AD53">
         <v>0</v>
       </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="9"/>
         <v>JPC</v>
@@ -5235,8 +5439,11 @@
       <c r="AD54">
         <v>0</v>
       </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="9"/>
         <v>JPC</v>
@@ -5329,8 +5536,11 @@
       <c r="AD55">
         <v>0</v>
       </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="9"/>
         <v>JPC</v>
@@ -5423,8 +5633,11 @@
       <c r="AD56">
         <v>0</v>
       </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -5515,8 +5728,11 @@
       <c r="AD58" t="s">
         <v>61</v>
       </c>
+      <c r="AE58" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -5607,8 +5823,11 @@
       <c r="AD59">
         <v>0</v>
       </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>A59</f>
         <v>JPC</v>
@@ -5701,8 +5920,11 @@
       <c r="AD60">
         <v>0</v>
       </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" ref="A61:A64" si="11">A60</f>
         <v>JPC</v>
@@ -5795,8 +6017,11 @@
       <c r="AD61">
         <v>0</v>
       </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="11"/>
         <v>JPC</v>
@@ -5889,8 +6114,11 @@
       <c r="AD62">
         <v>0</v>
       </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="11"/>
         <v>JPC</v>
@@ -5983,8 +6211,11 @@
       <c r="AD63">
         <v>0</v>
       </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="11"/>
         <v>JPC</v>
@@ -6077,8 +6308,11 @@
       <c r="AD64">
         <v>0</v>
       </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -6169,8 +6403,11 @@
       <c r="AD66" t="s">
         <v>61</v>
       </c>
+      <c r="AE66" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -6261,8 +6498,11 @@
       <c r="AD67">
         <v>0</v>
       </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>A67</f>
         <v>DSP</v>
@@ -6355,8 +6595,11 @@
       <c r="AD68">
         <v>0</v>
       </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A72" si="13">A68</f>
         <v>DSP</v>
@@ -6449,8 +6692,11 @@
       <c r="AD69">
         <v>0</v>
       </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="13"/>
         <v>DSP</v>
@@ -6543,8 +6789,11 @@
       <c r="AD70">
         <v>0</v>
       </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="13"/>
         <v>DSP</v>
@@ -6637,8 +6886,11 @@
       <c r="AD71">
         <v>0</v>
       </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="13"/>
         <v>DSP</v>
@@ -6731,8 +6983,11 @@
       <c r="AD72">
         <v>0</v>
       </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -6823,8 +7078,11 @@
       <c r="AD74" t="s">
         <v>61</v>
       </c>
+      <c r="AE74" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -6915,8 +7173,11 @@
       <c r="AD75">
         <v>0</v>
       </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>A75</f>
         <v>JBI</v>
@@ -7009,8 +7270,11 @@
       <c r="AD76">
         <v>0</v>
       </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" ref="A77:A80" si="15">A76</f>
         <v>JBI</v>
@@ -7103,8 +7367,11 @@
       <c r="AD77">
         <v>0</v>
       </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="15"/>
         <v>JBI</v>
@@ -7197,8 +7464,11 @@
       <c r="AD78">
         <v>0</v>
       </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="15"/>
         <v>JBI</v>
@@ -7291,8 +7561,11 @@
       <c r="AD79">
         <v>0</v>
       </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="15"/>
         <v>JBI</v>
@@ -7385,8 +7658,11 @@
       <c r="AD80">
         <v>0</v>
       </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -7477,8 +7753,11 @@
       <c r="AD82" t="s">
         <v>61</v>
       </c>
+      <c r="AE82" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -7569,8 +7848,11 @@
       <c r="AD83">
         <v>0</v>
       </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>A83</f>
         <v>JBIH</v>
@@ -7663,8 +7945,11 @@
       <c r="AD84">
         <v>0</v>
       </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" ref="A85:A88" si="17">A84</f>
         <v>JBIH</v>
@@ -7757,8 +8042,11 @@
       <c r="AD85">
         <v>0</v>
       </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="17"/>
         <v>JBIH</v>
@@ -7851,8 +8139,11 @@
       <c r="AD86">
         <v>0</v>
       </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="17"/>
         <v>JBIH</v>
@@ -7945,8 +8236,11 @@
       <c r="AD87">
         <v>0</v>
       </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="17"/>
         <v>JBIH</v>
@@ -8039,16 +8333,22 @@
       <c r="AD88">
         <v>0</v>
       </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>55</v>
       </c>
       <c r="B90" t="s">
         <v>56</v>
       </c>
+      <c r="AE90" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -8139,8 +8439,11 @@
       <c r="AD91" t="s">
         <v>61</v>
       </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -8231,8 +8534,11 @@
       <c r="AD92">
         <v>0</v>
       </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>A92</f>
         <v>FLF</v>
@@ -8325,8 +8631,11 @@
       <c r="AD93">
         <v>0</v>
       </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" ref="A94:A97" si="19">A93</f>
         <v>FLF</v>
@@ -8419,8 +8728,11 @@
       <c r="AD94">
         <v>0</v>
       </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="19"/>
         <v>FLF</v>
@@ -8513,8 +8825,11 @@
       <c r="AD95">
         <v>0</v>
       </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="19"/>
         <v>FLF</v>
@@ -8607,8 +8922,11 @@
       <c r="AD96">
         <v>0</v>
       </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="19"/>
         <v>FLF</v>
@@ -8702,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -8793,8 +9111,11 @@
       <c r="AD99" t="s">
         <v>61</v>
       </c>
+      <c r="AE99" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -8885,8 +9206,11 @@
       <c r="AD100">
         <v>0</v>
       </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>A100</f>
         <v>FLT</v>
@@ -8979,8 +9303,11 @@
       <c r="AD101">
         <v>0</v>
       </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" ref="A102:A105" si="21">A101</f>
         <v>FLT</v>
@@ -9073,8 +9400,11 @@
       <c r="AD102">
         <v>0</v>
       </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="21"/>
         <v>FLT</v>
@@ -9167,8 +9497,11 @@
       <c r="AD103">
         <v>0</v>
       </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="21"/>
         <v>FLT</v>
@@ -9261,8 +9594,11 @@
       <c r="AD104">
         <v>0</v>
       </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="21"/>
         <v>FLT</v>
@@ -9355,8 +9691,11 @@
       <c r="AD105">
         <v>0</v>
       </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -9447,8 +9786,11 @@
       <c r="AD107" t="s">
         <v>61</v>
       </c>
+      <c r="AE107" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -9539,8 +9881,11 @@
       <c r="AD108">
         <v>0</v>
       </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>A108</f>
         <v>SUM</v>
@@ -9633,8 +9978,11 @@
       <c r="AD109">
         <v>0</v>
       </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" ref="A110:A113" si="23">A109</f>
         <v>SUM</v>
@@ -9727,8 +10075,11 @@
       <c r="AD110">
         <v>0</v>
       </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="23"/>
         <v>SUM</v>
@@ -9821,8 +10172,11 @@
       <c r="AD111">
         <v>0</v>
       </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="23"/>
         <v>SUM</v>
@@ -9915,8 +10269,11 @@
       <c r="AD112">
         <v>0</v>
       </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="23"/>
         <v>SUM</v>
@@ -10009,8 +10366,11 @@
       <c r="AD113">
         <v>0</v>
       </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -10101,8 +10461,11 @@
       <c r="AD115" t="s">
         <v>61</v>
       </c>
+      <c r="AE115" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -10193,8 +10556,11 @@
       <c r="AD116">
         <v>0</v>
       </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>A116</f>
         <v>SUB</v>
@@ -10287,8 +10653,11 @@
       <c r="AD117">
         <v>0</v>
       </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" ref="A118:A121" si="25">A117</f>
         <v>SUB</v>
@@ -10381,8 +10750,11 @@
       <c r="AD118">
         <v>0</v>
       </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="25"/>
         <v>SUB</v>
@@ -10475,8 +10847,11 @@
       <c r="AD119">
         <v>0</v>
       </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="25"/>
         <v>SUB</v>
@@ -10569,8 +10944,11 @@
       <c r="AD120">
         <v>0</v>
       </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="25"/>
         <v>SUB</v>
@@ -10663,8 +11041,11 @@
       <c r="AD121">
         <v>0</v>
       </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -10755,8 +11136,11 @@
       <c r="AD123" t="s">
         <v>61</v>
       </c>
+      <c r="AE123" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -10847,8 +11231,11 @@
       <c r="AD124">
         <v>0</v>
       </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>A124</f>
         <v>AOT</v>
@@ -10941,8 +11328,11 @@
       <c r="AD125">
         <v>0</v>
       </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" ref="A126:A129" si="27">A125</f>
         <v>AOT</v>
@@ -11035,8 +11425,11 @@
       <c r="AD126">
         <v>0</v>
       </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="27"/>
         <v>AOT</v>
@@ -11129,8 +11522,11 @@
       <c r="AD127">
         <v>0</v>
       </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="27"/>
         <v>AOT</v>
@@ -11223,8 +11619,11 @@
       <c r="AD128">
         <v>0</v>
       </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="27"/>
         <v>AOT</v>
@@ -11317,8 +11716,11 @@
       <c r="AD129">
         <v>0</v>
       </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -11409,8 +11811,11 @@
       <c r="AD131" t="s">
         <v>61</v>
       </c>
+      <c r="AE131" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -11501,8 +11906,11 @@
       <c r="AD132">
         <v>0</v>
       </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>A132</f>
         <v>BOT</v>
@@ -11595,8 +12003,11 @@
       <c r="AD133">
         <v>0</v>
       </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" ref="A134:A137" si="29">A133</f>
         <v>BOT</v>
@@ -11689,8 +12100,11 @@
       <c r="AD134">
         <v>0</v>
       </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="29"/>
         <v>BOT</v>
@@ -11783,8 +12197,11 @@
       <c r="AD135">
         <v>0</v>
       </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="29"/>
         <v>BOT</v>
@@ -11877,8 +12294,11 @@
       <c r="AD136">
         <v>0</v>
       </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="29"/>
         <v>BOT</v>
@@ -11971,8 +12391,11 @@
       <c r="AD137">
         <v>0</v>
       </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -12063,8 +12486,11 @@
       <c r="AD139" t="s">
         <v>61</v>
       </c>
+      <c r="AE139" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -12155,8 +12581,11 @@
       <c r="AD140">
         <v>0</v>
       </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>A140</f>
         <v>AMM</v>
@@ -12249,8 +12678,11 @@
       <c r="AD141">
         <v>0</v>
       </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" ref="A142:A145" si="31">A141</f>
         <v>AMM</v>
@@ -12343,8 +12775,11 @@
       <c r="AD142">
         <v>0</v>
       </c>
+      <c r="AE142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="31"/>
         <v>AMM</v>
@@ -12437,8 +12872,11 @@
       <c r="AD143">
         <v>0</v>
       </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="31"/>
         <v>AMM</v>
@@ -12531,8 +12969,11 @@
       <c r="AD144">
         <v>0</v>
       </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="31"/>
         <v>AMM</v>
@@ -12625,8 +13066,11 @@
       <c r="AD145">
         <v>0</v>
       </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -12717,8 +13161,11 @@
       <c r="AD147" t="s">
         <v>61</v>
       </c>
+      <c r="AE147" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>48</v>
       </c>
@@ -12809,8 +13256,11 @@
       <c r="AD148">
         <v>0</v>
       </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>A148</f>
         <v>NTA</v>
@@ -12903,8 +13353,11 @@
       <c r="AD149">
         <v>0</v>
       </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" ref="A150:A153" si="33">A149</f>
         <v>NTA</v>
@@ -12997,8 +13450,11 @@
       <c r="AD150">
         <v>0</v>
       </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="33"/>
         <v>NTA</v>
@@ -13091,8 +13547,11 @@
       <c r="AD151">
         <v>0</v>
       </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="33"/>
         <v>NTA</v>
@@ -13185,8 +13644,11 @@
       <c r="AD152">
         <v>0</v>
       </c>
+      <c r="AE152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="33"/>
         <v>NTA</v>
@@ -13279,8 +13741,11 @@
       <c r="AD153">
         <v>0</v>
       </c>
+      <c r="AE153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -13371,8 +13836,11 @@
       <c r="AD155" t="s">
         <v>61</v>
       </c>
+      <c r="AE155" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -13463,8 +13931,11 @@
       <c r="AD156">
         <v>0</v>
       </c>
+      <c r="AE156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>A156</f>
         <v>NTB</v>
@@ -13557,8 +14028,11 @@
       <c r="AD157">
         <v>0</v>
       </c>
+      <c r="AE157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" ref="A158:A161" si="35">A157</f>
         <v>NTB</v>
@@ -13651,8 +14125,11 @@
       <c r="AD158">
         <v>0</v>
       </c>
+      <c r="AE158">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="35"/>
         <v>NTB</v>
@@ -13745,8 +14222,11 @@
       <c r="AD159">
         <v>0</v>
       </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="35"/>
         <v>NTB</v>
@@ -13839,8 +14319,11 @@
       <c r="AD160">
         <v>0</v>
       </c>
+      <c r="AE160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="35"/>
         <v>NTB</v>
@@ -13933,8 +14416,11 @@
       <c r="AD161">
         <v>0</v>
       </c>
+      <c r="AE161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -14025,8 +14511,11 @@
       <c r="AD163" t="s">
         <v>61</v>
       </c>
+      <c r="AE163" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>50</v>
       </c>
@@ -14117,8 +14606,11 @@
       <c r="AD164">
         <v>0</v>
       </c>
+      <c r="AE164">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f>A164</f>
         <v>XOR</v>
@@ -14211,8 +14703,11 @@
       <c r="AD165">
         <v>0</v>
       </c>
+      <c r="AE165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" ref="A166:A169" si="37">A165</f>
         <v>XOR</v>
@@ -14305,8 +14800,11 @@
       <c r="AD166">
         <v>0</v>
       </c>
+      <c r="AE166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="37"/>
         <v>XOR</v>
@@ -14399,8 +14897,11 @@
       <c r="AD167">
         <v>0</v>
       </c>
+      <c r="AE167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="37"/>
         <v>XOR</v>
@@ -14493,8 +14994,11 @@
       <c r="AD168">
         <v>0</v>
       </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="37"/>
         <v>XOR</v>
@@ -14587,8 +15091,11 @@
       <c r="AD169">
         <v>0</v>
       </c>
+      <c r="AE169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -14679,8 +15186,11 @@
       <c r="AD171" t="s">
         <v>61</v>
       </c>
+      <c r="AE171" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -14771,8 +15281,11 @@
       <c r="AD172">
         <v>0</v>
       </c>
+      <c r="AE172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f>A172</f>
         <v>AND</v>
@@ -14865,8 +15378,11 @@
       <c r="AD173">
         <v>0</v>
       </c>
+      <c r="AE173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" ref="A174:A177" si="39">A173</f>
         <v>AND</v>
@@ -14959,8 +15475,11 @@
       <c r="AD174">
         <v>0</v>
       </c>
+      <c r="AE174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="39"/>
         <v>AND</v>
@@ -15053,8 +15572,11 @@
       <c r="AD175">
         <v>0</v>
       </c>
+      <c r="AE175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="39"/>
         <v>AND</v>
@@ -15147,8 +15669,11 @@
       <c r="AD176">
         <v>0</v>
       </c>
+      <c r="AE176">
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="39"/>
         <v>AND</v>
@@ -15241,8 +15766,11 @@
       <c r="AD177">
         <v>0</v>
       </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -15333,8 +15861,11 @@
       <c r="AD179" t="s">
         <v>61</v>
       </c>
+      <c r="AE179" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -15425,8 +15956,11 @@
       <c r="AD180">
         <v>0</v>
       </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>A180</f>
         <v>ORR</v>
@@ -15519,8 +16053,11 @@
       <c r="AD181">
         <v>0</v>
       </c>
+      <c r="AE181">
+        <v>0</v>
+      </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" ref="A182:A185" si="41">A181</f>
         <v>ORR</v>
@@ -15613,8 +16150,11 @@
       <c r="AD182">
         <v>0</v>
       </c>
+      <c r="AE182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="41"/>
         <v>ORR</v>
@@ -15707,8 +16247,11 @@
       <c r="AD183">
         <v>0</v>
       </c>
+      <c r="AE183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="41"/>
         <v>ORR</v>
@@ -15801,8 +16344,11 @@
       <c r="AD184">
         <v>0</v>
       </c>
+      <c r="AE184">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="41"/>
         <v>ORR</v>
@@ -15895,8 +16441,11 @@
       <c r="AD185">
         <v>0</v>
       </c>
+      <c r="AE185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -15987,8 +16536,11 @@
       <c r="AD187" t="s">
         <v>61</v>
       </c>
+      <c r="AE187" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>53</v>
       </c>
@@ -16079,8 +16631,11 @@
       <c r="AD188">
         <v>0</v>
       </c>
+      <c r="AE188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f>A188</f>
         <v>LSH</v>
@@ -16173,8 +16728,11 @@
       <c r="AD189">
         <v>0</v>
       </c>
+      <c r="AE189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" ref="A190:A193" si="43">A189</f>
         <v>LSH</v>
@@ -16267,8 +16825,11 @@
       <c r="AD190">
         <v>0</v>
       </c>
+      <c r="AE190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="43"/>
         <v>LSH</v>
@@ -16361,8 +16922,11 @@
       <c r="AD191">
         <v>0</v>
       </c>
+      <c r="AE191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="43"/>
         <v>LSH</v>
@@ -16455,8 +17019,11 @@
       <c r="AD192">
         <v>0</v>
       </c>
+      <c r="AE192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="43"/>
         <v>LSH</v>
@@ -16549,8 +17116,11 @@
       <c r="AD193">
         <v>0</v>
       </c>
+      <c r="AE193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -16641,8 +17211,11 @@
       <c r="AD195" t="s">
         <v>61</v>
       </c>
+      <c r="AE195" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -16733,8 +17306,11 @@
       <c r="AD196">
         <v>0</v>
       </c>
+      <c r="AE196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f>A196</f>
         <v>MEO</v>
@@ -16827,8 +17403,11 @@
       <c r="AD197">
         <v>0</v>
       </c>
+      <c r="AE197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" ref="A198:A201" si="45">A197</f>
         <v>MEO</v>
@@ -16921,8 +17500,11 @@
       <c r="AD198">
         <v>0</v>
       </c>
+      <c r="AE198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="45"/>
         <v>MEO</v>
@@ -17015,8 +17597,11 @@
       <c r="AD199">
         <v>0</v>
       </c>
+      <c r="AE199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="45"/>
         <v>MEO</v>
@@ -17109,8 +17694,11 @@
       <c r="AD200">
         <v>0</v>
       </c>
+      <c r="AE200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="45"/>
         <v>MEO</v>
@@ -17203,8 +17791,11 @@
       <c r="AD201">
         <v>0</v>
       </c>
+      <c r="AE201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -17295,8 +17886,11 @@
       <c r="AD203" t="s">
         <v>61</v>
       </c>
+      <c r="AE203" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>57</v>
       </c>
@@ -17387,8 +17981,11 @@
       <c r="AD204">
         <v>0</v>
       </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f>A204</f>
         <v>MEN</v>
@@ -17481,8 +18078,11 @@
       <c r="AD205">
         <v>0</v>
       </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" ref="A206:A209" si="47">A205</f>
         <v>MEN</v>
@@ -17575,8 +18175,11 @@
       <c r="AD206">
         <v>0</v>
       </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="47"/>
         <v>MEN</v>
@@ -17669,8 +18272,11 @@
       <c r="AD207">
         <v>0</v>
       </c>
+      <c r="AE207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="47"/>
         <v>MEN</v>
@@ -17763,8 +18369,11 @@
       <c r="AD208">
         <v>0</v>
       </c>
+      <c r="AE208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="47"/>
         <v>MEN</v>
@@ -17857,8 +18466,11 @@
       <c r="AD209">
         <v>0</v>
       </c>
+      <c r="AE209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -17949,8 +18561,11 @@
       <c r="AD211" t="s">
         <v>61</v>
       </c>
+      <c r="AE211" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -18041,8 +18656,11 @@
       <c r="AD212">
         <v>0</v>
       </c>
+      <c r="AE212">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f>A212</f>
         <v>SMA</v>
@@ -18135,8 +18753,11 @@
       <c r="AD213">
         <v>0</v>
       </c>
+      <c r="AE213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" ref="A214:A217" si="49">A213</f>
         <v>SMA</v>
@@ -18229,8 +18850,11 @@
       <c r="AD214">
         <v>0</v>
       </c>
+      <c r="AE214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="49"/>
         <v>SMA</v>
@@ -18323,8 +18947,11 @@
       <c r="AD215">
         <v>0</v>
       </c>
+      <c r="AE215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="49"/>
         <v>SMA</v>
@@ -18417,8 +19044,11 @@
       <c r="AD216">
         <v>0</v>
       </c>
+      <c r="AE216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="49"/>
         <v>SMA</v>
@@ -18511,8 +19141,11 @@
       <c r="AD217">
         <v>0</v>
       </c>
+      <c r="AE217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -18603,8 +19236,11 @@
       <c r="AD219" t="s">
         <v>61</v>
       </c>
+      <c r="AE219" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>59</v>
       </c>
@@ -18695,8 +19331,11 @@
       <c r="AD220">
         <v>0</v>
       </c>
+      <c r="AE220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f>A220</f>
         <v>SMAH</v>
@@ -18789,8 +19428,11 @@
       <c r="AD221">
         <v>0</v>
       </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" ref="A222:A225" si="51">A221</f>
         <v>SMAH</v>
@@ -18883,8 +19525,11 @@
       <c r="AD222">
         <v>0</v>
       </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="51"/>
         <v>SMAH</v>
@@ -18977,8 +19622,11 @@
       <c r="AD223">
         <v>0</v>
       </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="51"/>
         <v>SMAH</v>
@@ -19071,8 +19719,11 @@
       <c r="AD224">
         <v>0</v>
       </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="51"/>
         <v>SMAH</v>
@@ -19165,8 +19816,11 @@
       <c r="AD225">
         <v>0</v>
       </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -19257,8 +19911,11 @@
       <c r="AD227" t="s">
         <v>61</v>
       </c>
+      <c r="AE227" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>60</v>
       </c>
@@ -19349,8 +20006,11 @@
       <c r="AD228">
         <v>0</v>
       </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f>A228</f>
         <v>STK</v>
@@ -19443,8 +20103,11 @@
       <c r="AD229">
         <v>0</v>
       </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" ref="A230:A233" si="53">A229</f>
         <v>STK</v>
@@ -19537,8 +20200,11 @@
       <c r="AD230">
         <v>0</v>
       </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="53"/>
         <v>STK</v>
@@ -19631,8 +20297,11 @@
       <c r="AD231">
         <v>0</v>
       </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="53"/>
         <v>STK</v>
@@ -19725,8 +20394,11 @@
       <c r="AD232">
         <v>0</v>
       </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="53"/>
         <v>STK</v>
@@ -19819,8 +20491,11 @@
       <c r="AD233">
         <v>0</v>
       </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -19911,8 +20586,11 @@
       <c r="AD235" t="s">
         <v>61</v>
       </c>
+      <c r="AE235" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>62</v>
       </c>
@@ -20003,8 +20681,11 @@
       <c r="AD236">
         <v>1</v>
       </c>
+      <c r="AE236">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f>A236</f>
         <v>USK</v>
@@ -20097,8 +20778,11 @@
       <c r="AD237">
         <v>1</v>
       </c>
+      <c r="AE237">
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" ref="A238:A241" si="55">A237</f>
         <v>USK</v>
@@ -20191,8 +20875,11 @@
       <c r="AD238">
         <v>1</v>
       </c>
+      <c r="AE238">
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="55"/>
         <v>USK</v>
@@ -20285,8 +20972,11 @@
       <c r="AD239">
         <v>1</v>
       </c>
+      <c r="AE239">
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="55"/>
         <v>USK</v>
@@ -20379,8 +21069,11 @@
       <c r="AD240">
         <v>1</v>
       </c>
+      <c r="AE240">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="55"/>
         <v>USK</v>
@@ -20473,8 +21166,11 @@
       <c r="AD241">
         <v>1</v>
       </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -20565,8 +21261,11 @@
       <c r="AD243" t="s">
         <v>61</v>
       </c>
+      <c r="AE243" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>63</v>
       </c>
@@ -20655,10 +21354,13 @@
         <v>0</v>
       </c>
       <c r="AD244">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE244">
+        <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f>A244</f>
         <v>STC</v>
@@ -20749,10 +21451,13 @@
         <v>0</v>
       </c>
       <c r="AD245">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE245">
+        <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" ref="A246:A249" si="57">A245</f>
         <v>STC</v>
@@ -20843,10 +21548,13 @@
         <v>0</v>
       </c>
       <c r="AD246">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE246">
+        <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="57"/>
         <v>STC</v>
@@ -20937,10 +21645,13 @@
         <v>0</v>
       </c>
       <c r="AD247">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE247">
+        <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="57"/>
         <v>STC</v>
@@ -21031,10 +21742,13 @@
         <v>0</v>
       </c>
       <c r="AD248">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE248">
+        <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="57"/>
         <v>STC</v>
@@ -21125,10 +21839,13 @@
         <v>0</v>
       </c>
       <c r="AD249">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE249">
+        <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -21219,8 +21936,11 @@
       <c r="AD251" t="s">
         <v>61</v>
       </c>
+      <c r="AE251" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>95</v>
       </c>
@@ -21311,8 +22031,11 @@
       <c r="AD252">
         <v>1</v>
       </c>
+      <c r="AE252">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f>A252</f>
         <v>SSK</v>
@@ -21405,8 +22128,11 @@
       <c r="AD253">
         <v>1</v>
       </c>
+      <c r="AE253">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" ref="A254:A257" si="59">A253</f>
         <v>SSK</v>
@@ -21499,8 +22225,11 @@
       <c r="AD254">
         <v>1</v>
       </c>
+      <c r="AE254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="59"/>
         <v>SSK</v>
@@ -21593,8 +22322,11 @@
       <c r="AD255">
         <v>1</v>
       </c>
+      <c r="AE255">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="59"/>
         <v>SSK</v>
@@ -21687,8 +22419,11 @@
       <c r="AD256">
         <v>1</v>
       </c>
+      <c r="AE256">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="59"/>
         <v>SSK</v>
@@ -21781,8 +22516,11 @@
       <c r="AD257">
         <v>1</v>
       </c>
+      <c r="AE257">
+        <v>0</v>
+      </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -21873,8 +22611,11 @@
       <c r="AD259" t="s">
         <v>61</v>
       </c>
+      <c r="AE259" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>96</v>
       </c>
@@ -21965,8 +22706,11 @@
       <c r="AD260">
         <v>1</v>
       </c>
+      <c r="AE260">
+        <v>0</v>
+      </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f>A260</f>
         <v>SSKH</v>
@@ -22059,8 +22803,11 @@
       <c r="AD261">
         <v>1</v>
       </c>
+      <c r="AE261">
+        <v>0</v>
+      </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" ref="A262:A265" si="61">A261</f>
         <v>SSKH</v>
@@ -22153,8 +22900,11 @@
       <c r="AD262">
         <v>1</v>
       </c>
+      <c r="AE262">
+        <v>0</v>
+      </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="61"/>
         <v>SSKH</v>
@@ -22247,8 +22997,11 @@
       <c r="AD263">
         <v>1</v>
       </c>
+      <c r="AE263">
+        <v>0</v>
+      </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="61"/>
         <v>SSKH</v>
@@ -22341,8 +23094,11 @@
       <c r="AD264">
         <v>1</v>
       </c>
+      <c r="AE264">
+        <v>0</v>
+      </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="61"/>
         <v>SSKH</v>
@@ -22435,10 +23191,688 @@
       <c r="AD265">
         <v>1</v>
       </c>
+      <c r="AE265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H267" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K267" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L267" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M267" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N267" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q267" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R267" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S267" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U267" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V267" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W267" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X267" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y267" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z267" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA267" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB267" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC267" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD267" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B268" s="2">
+        <v>10001000</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0</v>
+      </c>
+      <c r="D268" s="2">
+        <v>0</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0</v>
+      </c>
+      <c r="F268" s="2">
+        <v>0</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J268" s="2">
+        <v>1</v>
+      </c>
+      <c r="K268" s="2">
+        <v>1</v>
+      </c>
+      <c r="L268" s="2">
+        <v>0</v>
+      </c>
+      <c r="M268" s="2">
+        <v>0</v>
+      </c>
+      <c r="N268" s="2">
+        <v>0</v>
+      </c>
+      <c r="O268" s="2">
+        <v>0</v>
+      </c>
+      <c r="P268" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="2">
+        <v>0</v>
+      </c>
+      <c r="R268" s="2">
+        <v>0</v>
+      </c>
+      <c r="S268" s="2">
+        <v>1</v>
+      </c>
+      <c r="T268" s="2">
+        <v>1</v>
+      </c>
+      <c r="U268" s="2">
+        <v>1</v>
+      </c>
+      <c r="V268" s="2">
+        <v>0</v>
+      </c>
+      <c r="W268" s="2">
+        <v>0</v>
+      </c>
+      <c r="X268" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y268" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="str">
+        <f>A268</f>
+        <v>LKB</v>
+      </c>
+      <c r="B269" s="4">
+        <f>B268</f>
+        <v>10001000</v>
+      </c>
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4">
+        <v>0</v>
+      </c>
+      <c r="E269" s="4">
+        <v>0</v>
+      </c>
+      <c r="F269" s="4">
+        <v>1</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H269" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J269" s="4">
+        <v>0</v>
+      </c>
+      <c r="K269" s="4">
+        <v>0</v>
+      </c>
+      <c r="L269" s="4">
+        <v>0</v>
+      </c>
+      <c r="M269" s="4">
+        <v>0</v>
+      </c>
+      <c r="N269" s="4">
+        <v>0</v>
+      </c>
+      <c r="O269" s="4">
+        <v>0</v>
+      </c>
+      <c r="P269" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="4">
+        <v>0</v>
+      </c>
+      <c r="R269" s="4">
+        <v>0</v>
+      </c>
+      <c r="S269" s="4">
+        <v>1</v>
+      </c>
+      <c r="T269" s="4">
+        <v>0</v>
+      </c>
+      <c r="U269" s="4">
+        <v>1</v>
+      </c>
+      <c r="V269" s="4">
+        <v>0</v>
+      </c>
+      <c r="W269" s="4">
+        <v>0</v>
+      </c>
+      <c r="X269" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y269" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA269" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="str">
+        <f t="shared" ref="A270:B273" si="63">A269</f>
+        <v>LKB</v>
+      </c>
+      <c r="B270" s="2">
+        <f t="shared" si="63"/>
+        <v>10001000</v>
+      </c>
+      <c r="C270" s="2">
+        <v>2</v>
+      </c>
+      <c r="D270" s="2">
+        <v>0</v>
+      </c>
+      <c r="E270" s="2">
+        <v>1</v>
+      </c>
+      <c r="F270" s="2">
+        <v>1</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J270" s="2">
+        <v>0</v>
+      </c>
+      <c r="K270" s="2">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2">
+        <v>1</v>
+      </c>
+      <c r="M270" s="2">
+        <v>0</v>
+      </c>
+      <c r="N270" s="2">
+        <v>0</v>
+      </c>
+      <c r="O270" s="2">
+        <v>0</v>
+      </c>
+      <c r="P270" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q270" s="2">
+        <v>0</v>
+      </c>
+      <c r="R270" s="2">
+        <v>0</v>
+      </c>
+      <c r="S270" s="2">
+        <v>1</v>
+      </c>
+      <c r="T270" s="2">
+        <v>0</v>
+      </c>
+      <c r="U270" s="2">
+        <v>1</v>
+      </c>
+      <c r="V270" s="2">
+        <v>0</v>
+      </c>
+      <c r="W270" s="2">
+        <v>0</v>
+      </c>
+      <c r="X270" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y270" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z270" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA270" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="str">
+        <f t="shared" si="63"/>
+        <v>LKB</v>
+      </c>
+      <c r="B271" s="4">
+        <f t="shared" si="63"/>
+        <v>10001000</v>
+      </c>
+      <c r="C271" s="4">
+        <v>3</v>
+      </c>
+      <c r="D271" s="4">
+        <v>1</v>
+      </c>
+      <c r="E271" s="4">
+        <v>1</v>
+      </c>
+      <c r="F271" s="4">
+        <v>1</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H271" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J271" s="4">
+        <v>0</v>
+      </c>
+      <c r="K271" s="4">
+        <v>1</v>
+      </c>
+      <c r="L271" s="4">
+        <v>0</v>
+      </c>
+      <c r="M271" s="4">
+        <v>0</v>
+      </c>
+      <c r="N271" s="4">
+        <v>0</v>
+      </c>
+      <c r="O271" s="4">
+        <v>0</v>
+      </c>
+      <c r="P271" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q271" s="4">
+        <v>0</v>
+      </c>
+      <c r="R271" s="4">
+        <v>0</v>
+      </c>
+      <c r="S271" s="4">
+        <v>1</v>
+      </c>
+      <c r="T271" s="4">
+        <v>0</v>
+      </c>
+      <c r="U271" s="4">
+        <v>1</v>
+      </c>
+      <c r="V271" s="4">
+        <v>0</v>
+      </c>
+      <c r="W271" s="4">
+        <v>0</v>
+      </c>
+      <c r="X271" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y271" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z271" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA271" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="str">
+        <f t="shared" si="63"/>
+        <v>LKB</v>
+      </c>
+      <c r="B272" s="2">
+        <f t="shared" si="63"/>
+        <v>10001000</v>
+      </c>
+      <c r="C272" s="2">
+        <v>4</v>
+      </c>
+      <c r="D272" s="2">
+        <v>1</v>
+      </c>
+      <c r="E272" s="2">
+        <v>1</v>
+      </c>
+      <c r="F272" s="2">
+        <v>0</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J272" s="2">
+        <v>0</v>
+      </c>
+      <c r="K272" s="2">
+        <v>1</v>
+      </c>
+      <c r="L272" s="2">
+        <v>0</v>
+      </c>
+      <c r="M272" s="2">
+        <v>0</v>
+      </c>
+      <c r="N272" s="2">
+        <v>0</v>
+      </c>
+      <c r="O272" s="2">
+        <v>0</v>
+      </c>
+      <c r="P272" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q272" s="2">
+        <v>0</v>
+      </c>
+      <c r="R272" s="2">
+        <v>0</v>
+      </c>
+      <c r="S272" s="2">
+        <v>1</v>
+      </c>
+      <c r="T272" s="2">
+        <v>0</v>
+      </c>
+      <c r="U272" s="2">
+        <v>1</v>
+      </c>
+      <c r="V272" s="2">
+        <v>0</v>
+      </c>
+      <c r="W272" s="2">
+        <v>0</v>
+      </c>
+      <c r="X272" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y272" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z272" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA272" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB272" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="str">
+        <f t="shared" si="63"/>
+        <v>LKB</v>
+      </c>
+      <c r="B273" s="4">
+        <f t="shared" si="63"/>
+        <v>10001000</v>
+      </c>
+      <c r="C273" s="4">
+        <v>5</v>
+      </c>
+      <c r="D273" s="4">
+        <v>1</v>
+      </c>
+      <c r="E273" s="4">
+        <v>0</v>
+      </c>
+      <c r="F273" s="4">
+        <v>0</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J273" s="4">
+        <v>0</v>
+      </c>
+      <c r="K273" s="4">
+        <v>1</v>
+      </c>
+      <c r="L273" s="4">
+        <v>0</v>
+      </c>
+      <c r="M273" s="4">
+        <v>0</v>
+      </c>
+      <c r="N273" s="4">
+        <v>0</v>
+      </c>
+      <c r="O273" s="4">
+        <v>1</v>
+      </c>
+      <c r="P273" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="4">
+        <v>0</v>
+      </c>
+      <c r="R273" s="4">
+        <v>0</v>
+      </c>
+      <c r="S273" s="4">
+        <v>1</v>
+      </c>
+      <c r="T273" s="4">
+        <v>0</v>
+      </c>
+      <c r="U273" s="4">
+        <v>1</v>
+      </c>
+      <c r="V273" s="4">
+        <v>0</v>
+      </c>
+      <c r="W273" s="4">
+        <v>0</v>
+      </c>
+      <c r="X273" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y273" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA273" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB273" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC273" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:F24 G2:H2 AD2:AD8 I2:AC24">
-    <cfRule type="colorScale" priority="169">
+  <conditionalFormatting sqref="D2:F24 G2:H2 I2:I24">
+    <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22448,6 +23882,786 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:F32 I25:I32">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:F40 I34:I40">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:F48 I42:I48">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:F56 I50:I56">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:H50">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:F64 I58:I64">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:H58">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H64">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:F72 I65:I72">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:H66">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:H72">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:F80 I74:I80">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74:H74">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74:H80">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:F88 I82:I88">
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82:H82">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82:H88">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:F97 I91:I97">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:H91">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:H97">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:F105 I99:I105">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99:H99">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99:H105">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:F113 I107:I113">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:H107">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:H113">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115:F121 I115:I121">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115:H115">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115:H121">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130:F130 I130">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130:H130">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:F129 I123:I129">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123:H123">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123:H129">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131:F137 I131:I137">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G131:H131">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G131:H137">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D139:F145 I139:I145">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139:H139">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139:H145">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147:F153 I147:I153">
+    <cfRule type="colorScale" priority="235">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G147:H147">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G147:H153">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155:F161 I155:I161">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G155:H155">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G155:H161">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D163:F169 I163:I169">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G163:H163">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G163:H169">
+    <cfRule type="colorScale" priority="227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171:F177 I171:I177">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:H171">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:H177">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179:F185 I179:I185">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179:H179">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179:H185">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D187:F193 I187:I193">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G187:H187">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G187:H193">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D195:F201 I195:I201">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195:H195">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195:H201">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D203:F209 I203:I209">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G203:H203">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G203:H209">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D211:F217 I211:I217">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G211:H211">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G211:H217">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D219:F225 I219:I225">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G219:H219">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G219:H225">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D227:F233 I227:I233">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G227:H227">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G227:H233">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D235:F241 I235:I241">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -22457,7 +24671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
+  <conditionalFormatting sqref="G235:H235">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -22467,7 +24681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F32 I25:AC32">
+  <conditionalFormatting sqref="G235:H241">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -22477,17 +24691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:F40 I34:AC40">
+  <conditionalFormatting sqref="D243:F249 I243:I249">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -22497,7 +24701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
+  <conditionalFormatting sqref="G243:H243">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -22507,7 +24711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:F48 I42:AC48">
+  <conditionalFormatting sqref="G243:H249">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -22517,17 +24721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:F56 I50:AC56">
+  <conditionalFormatting sqref="D1:I1">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -22537,7 +24731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:H50">
+  <conditionalFormatting sqref="G1:H1">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -22547,17 +24741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:F64 I58:AC64">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:H58">
+  <conditionalFormatting sqref="D251:F257 I251:I257">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -22567,7 +24751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H64">
+  <conditionalFormatting sqref="G251:H251">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -22577,7 +24761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:F72 I65:AC72">
+  <conditionalFormatting sqref="G251:H257">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
@@ -22587,17 +24771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:H66">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:H72">
+  <conditionalFormatting sqref="D259:F265 I259:I265">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -22607,7 +24781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:F80 I74:AC80">
+  <conditionalFormatting sqref="G259:H259">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -22617,7 +24791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H74">
+  <conditionalFormatting sqref="G259:H265">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -22627,347 +24801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H80">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82:F88 I82:AC88">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H82">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H88">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91:F97 I91:AC97">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:H91">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:H97">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:F105 I99:AC105">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99:H99">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99:H105">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:F113 I107:AC113">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:H107">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:H113">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115:F121 I115:AC121">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H115">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H121">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D130:F130 I130:AC130">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G130:H130">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123:F129 I123:AC129">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123:H123">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123:H129">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D131:F137 I131:AC137">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G131:H131">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G131:H137">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D139:F145 I139:AC145">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G139:H139">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G139:H145">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D147:F153 I147:AC153">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G147:H147">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G147:H153">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155:F161 I155:AC161">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G155:H155">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G155:H161">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D163:F169 I163:AC169">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G163:H163">
+  <conditionalFormatting sqref="D267:F273 I267:I273">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -22977,7 +24811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G163:H169">
+  <conditionalFormatting sqref="G267:H267">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -22987,7 +24821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D171:F177 I171:AC177">
+  <conditionalFormatting sqref="G267:H273">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -22997,927 +24831,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171:H171">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171:H177">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D179:F185 I179:AC185">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H179">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179:H185">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D187:F193 I187:AC193">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G187:H187">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G187:H193">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D195:F201 I195:AC201">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195:H195">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195:H201">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D203:F209 I203:AC209">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G203:H203">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G203:H209">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D211:F217 I211:AC217">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G211:H211">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G211:H217">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D219:F225 I219:AC225">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G219:H219">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G219:H225">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D227:F233 I227:AC233">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G227:H227">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G227:H233">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD10:AD16">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD18:AD24">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD26:AD32">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34:AD40">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD42:AD48">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD50:AD56">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD58:AD64">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD66:AD72">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD74:AD80">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD82:AD88">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD91:AD97">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD99:AD105">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD107:AD113">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD115:AD121">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD123:AD129">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD131:AD137">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:AD233">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D235:F241 I235:AC235 I236:J241 L236:AC241">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G235:H235">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G235:H241">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J235:AD235 J236:J241 L236:AD241">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D243:F249 I243:AC243 I244:J249 L244:AC249">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G243:H243">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G243:H249">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J243:AD243 J244:J249 L244:AD249">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:AD1">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:AD1">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D251:F257 I251:AC251 I252:J257 L252:AC257">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G251:H251">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G251:H257">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J251:AD251 J252:J257 L252:AD257">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D259:F265 I259:AC259 I260:J265 L260:AC265">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G259:H259">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G259:H265">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J259:AD259 J260:J265 L260:AD265">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K32">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:K40">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:K48">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:K56">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59:K64">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:K72">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K75:K80">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K83:K88">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K97">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K100:K105">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K108:K113">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K116:K121">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K124:K129">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K132:K137">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K140:K145">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K148:K153">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K156:K161">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K164:K169">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K172:K177">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K180:K185">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K188:K193">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196:K201">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K204:K209">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212:K217">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K220:K225">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K228:K233">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K236:K241">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K236:K241">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K244:K249">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K244:K249">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K252:K257">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K252:K257">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K260:K265">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K260:K265">
+  <conditionalFormatting sqref="J1:AE273">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Other/CPU MicroCode Signals.xlsx
+++ b/Other/CPU MicroCode Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libraries\Documents\MAX7000CPU-GEN2\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC1243-E33D-4D74-99CA-70BA3B600E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6737B39-4A3D-4747-B510-4AC9C7CFA0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
   </bookViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA06146-33F3-F747-834E-F5D5B9EC84C7}">
   <dimension ref="A1:AE273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H245" sqref="H245"/>
+    <sheetView tabSelected="1" topLeftCell="D208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T272" sqref="T272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23737,7 +23737,7 @@
         <v>1</v>
       </c>
       <c r="T272" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U272" s="2">
         <v>1</v>
@@ -23833,8 +23833,8 @@
       <c r="S273" s="4">
         <v>1</v>
       </c>
-      <c r="T273" s="4">
-        <v>0</v>
+      <c r="T273" s="2">
+        <v>1</v>
       </c>
       <c r="U273" s="4">
         <v>1</v>
